--- a/Code/Results/Cases/Case_9_13/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_9_13/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.76469339764102</v>
+        <v>12.42855357429191</v>
       </c>
       <c r="C2">
-        <v>9.277903592448334</v>
+        <v>8.877545704594683</v>
       </c>
       <c r="D2">
-        <v>5.468930155811828</v>
+        <v>5.49993257626665</v>
       </c>
       <c r="E2">
-        <v>8.977979997486283</v>
+        <v>8.811639906716872</v>
       </c>
       <c r="F2">
-        <v>18.32925432345631</v>
+        <v>17.83158863036189</v>
       </c>
       <c r="G2">
-        <v>23.05582714312442</v>
+        <v>21.64967791934292</v>
       </c>
       <c r="H2">
-        <v>2.557645145115706</v>
+        <v>2.459480909966321</v>
       </c>
       <c r="I2">
-        <v>3.221573208229297</v>
+        <v>3.093526225740628</v>
       </c>
       <c r="J2">
-        <v>9.320806179635465</v>
+        <v>9.490231511019102</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.63099319130773</v>
       </c>
       <c r="M2">
-        <v>10.65770385915431</v>
+        <v>10.13307917186493</v>
       </c>
       <c r="N2">
-        <v>6.399016588800229</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.775226873940772</v>
+        <v>10.68695964044815</v>
       </c>
       <c r="P2">
-        <v>13.14020660533584</v>
+        <v>6.5420511726153</v>
       </c>
       <c r="Q2">
-        <v>15.19568476334312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.675933598022592</v>
+      </c>
+      <c r="R2">
+        <v>13.00450968718191</v>
+      </c>
+      <c r="S2">
+        <v>14.78752157483033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.9721037427555</v>
+        <v>11.6659209549427</v>
       </c>
       <c r="C3">
-        <v>9.1805600990297</v>
+        <v>8.728928408405729</v>
       </c>
       <c r="D3">
-        <v>5.262579334365221</v>
+        <v>5.275856038608036</v>
       </c>
       <c r="E3">
-        <v>8.84141968311499</v>
+        <v>8.694420387479095</v>
       </c>
       <c r="F3">
-        <v>18.05595618513485</v>
+        <v>17.59877829123629</v>
       </c>
       <c r="G3">
-        <v>22.75770792900761</v>
+        <v>21.44964731589288</v>
       </c>
       <c r="H3">
-        <v>2.721052518352958</v>
+        <v>2.611991499322075</v>
       </c>
       <c r="I3">
-        <v>3.353760418812854</v>
+        <v>3.211567982338692</v>
       </c>
       <c r="J3">
-        <v>9.340904631385449</v>
+        <v>9.490890944633959</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.75755232913037</v>
       </c>
       <c r="M3">
-        <v>10.11000325874546</v>
+        <v>10.12076122215559</v>
       </c>
       <c r="N3">
-        <v>6.243846776663569</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.410178434816229</v>
+        <v>10.14143788105937</v>
       </c>
       <c r="P3">
-        <v>13.26646511998166</v>
+        <v>6.388716489610554</v>
       </c>
       <c r="Q3">
-        <v>15.15922627848999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.319116959826543</v>
+      </c>
+      <c r="R3">
+        <v>13.12225647093811</v>
+      </c>
+      <c r="S3">
+        <v>14.77751587691974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.45612746476862</v>
+        <v>11.1717691581295</v>
       </c>
       <c r="C4">
-        <v>9.119529215786425</v>
+        <v>8.636725176238429</v>
       </c>
       <c r="D4">
-        <v>5.131135473083387</v>
+        <v>5.133067897643952</v>
       </c>
       <c r="E4">
-        <v>8.755126387796444</v>
+        <v>8.620160009257875</v>
       </c>
       <c r="F4">
-        <v>17.89321435897113</v>
+        <v>17.4601016472255</v>
       </c>
       <c r="G4">
-        <v>22.5816512348258</v>
+        <v>21.33544050401936</v>
       </c>
       <c r="H4">
-        <v>2.825280112842757</v>
+        <v>2.70930193198258</v>
       </c>
       <c r="I4">
-        <v>3.438874469767654</v>
+        <v>3.287883204316815</v>
       </c>
       <c r="J4">
-        <v>9.355633020235631</v>
+        <v>9.492189363372034</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.83663042261083</v>
       </c>
       <c r="M4">
-        <v>9.757082776722912</v>
+        <v>10.12965245611242</v>
       </c>
       <c r="N4">
-        <v>6.146741189636615</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.178743166695849</v>
+        <v>9.790019009325745</v>
       </c>
       <c r="P4">
-        <v>13.34559286076243</v>
+        <v>6.29309187384415</v>
       </c>
       <c r="Q4">
-        <v>15.14160723008928</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.092670270073528</v>
+      </c>
+      <c r="R4">
+        <v>13.19633462577267</v>
+      </c>
+      <c r="S4">
+        <v>14.77528095741485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.23332696100546</v>
+        <v>10.95789982010938</v>
       </c>
       <c r="C5">
-        <v>9.095746131974915</v>
+        <v>8.601078700222928</v>
       </c>
       <c r="D5">
-        <v>5.077562641010137</v>
+        <v>5.07479391255253</v>
       </c>
       <c r="E5">
-        <v>8.717565140572837</v>
+        <v>8.587578775897187</v>
       </c>
       <c r="F5">
-        <v>17.82265977395393</v>
+        <v>17.39915469836464</v>
       </c>
       <c r="G5">
-        <v>22.50205422122342</v>
+        <v>21.28139067636323</v>
       </c>
       <c r="H5">
-        <v>2.869039929670198</v>
+        <v>2.750177919608084</v>
       </c>
       <c r="I5">
-        <v>3.477206647662404</v>
+        <v>3.323056850129518</v>
       </c>
       <c r="J5">
-        <v>9.360698979343258</v>
+        <v>9.491400166350509</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.86504231061138</v>
       </c>
       <c r="M5">
-        <v>9.609307520542416</v>
+        <v>10.1350964190443</v>
       </c>
       <c r="N5">
-        <v>6.107349762215445</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.081503877587316</v>
+        <v>9.642906980296866</v>
       </c>
       <c r="P5">
-        <v>13.37790031419541</v>
+        <v>6.25439051033978</v>
       </c>
       <c r="Q5">
-        <v>15.1317255131461</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.997441689866402</v>
+      </c>
+      <c r="R5">
+        <v>13.22670649264273</v>
+      </c>
+      <c r="S5">
+        <v>14.77149777930933</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.18950402842196</v>
+        <v>10.91553872084212</v>
       </c>
       <c r="C6">
-        <v>9.093533981525647</v>
+        <v>8.597824865421199</v>
       </c>
       <c r="D6">
-        <v>5.070003498165862</v>
+        <v>5.066484448167286</v>
       </c>
       <c r="E6">
-        <v>8.709095061647448</v>
+        <v>8.579989518235461</v>
       </c>
       <c r="F6">
-        <v>17.80422354655229</v>
+        <v>17.3823272138675</v>
       </c>
       <c r="G6">
-        <v>22.47715561555308</v>
+        <v>21.26075133902508</v>
       </c>
       <c r="H6">
-        <v>2.876728112321544</v>
+        <v>2.75737513069637</v>
       </c>
       <c r="I6">
-        <v>3.487030231953839</v>
+        <v>3.332955759196817</v>
       </c>
       <c r="J6">
-        <v>9.359709535262176</v>
+        <v>9.489398369220538</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.8647057459008</v>
       </c>
       <c r="M6">
-        <v>9.584696823700531</v>
+        <v>10.13341494160149</v>
       </c>
       <c r="N6">
-        <v>6.101526574496761</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.063777502916389</v>
+        <v>9.618415587206412</v>
       </c>
       <c r="P6">
-        <v>13.38286894273786</v>
+        <v>6.248681462657371</v>
       </c>
       <c r="Q6">
-        <v>15.12541150601124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.980048058157742</v>
+      </c>
+      <c r="R6">
+        <v>13.23145576671093</v>
+      </c>
+      <c r="S6">
+        <v>14.76624173199449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.43610505776922</v>
+        <v>11.14856377553158</v>
       </c>
       <c r="C7">
-        <v>9.124043139018472</v>
+        <v>8.641800585510765</v>
       </c>
       <c r="D7">
-        <v>5.134220540597457</v>
+        <v>5.138646424595434</v>
       </c>
       <c r="E7">
-        <v>8.748672418092641</v>
+        <v>8.614301259258157</v>
       </c>
       <c r="F7">
-        <v>17.87378357929258</v>
+        <v>17.42981976732974</v>
       </c>
       <c r="G7">
-        <v>22.54852526345173</v>
+        <v>21.37712166562297</v>
       </c>
       <c r="H7">
-        <v>2.826836095128234</v>
+        <v>2.711214812417226</v>
       </c>
       <c r="I7">
-        <v>3.448368884964355</v>
+        <v>3.299358241485375</v>
       </c>
       <c r="J7">
-        <v>9.350614487817298</v>
+        <v>9.455668340397647</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.81868701454509</v>
       </c>
       <c r="M7">
-        <v>9.755571692557576</v>
+        <v>10.11873075651224</v>
       </c>
       <c r="N7">
-        <v>6.148229782854448</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.173449563599839</v>
+        <v>9.78521492128489</v>
       </c>
       <c r="P7">
-        <v>13.34492890543502</v>
+        <v>6.294307449894471</v>
       </c>
       <c r="Q7">
-        <v>15.12854681504137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.086197179307325</v>
+      </c>
+      <c r="R7">
+        <v>13.19564062730558</v>
+      </c>
+      <c r="S7">
+        <v>14.75488846913879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.47664115663413</v>
+        <v>12.13741751592877</v>
       </c>
       <c r="C8">
-        <v>9.251217340607267</v>
+        <v>8.830706548489735</v>
       </c>
       <c r="D8">
-        <v>5.403654148282564</v>
+        <v>5.436642745338967</v>
       </c>
       <c r="E8">
-        <v>8.923772890012563</v>
+        <v>8.765646886204232</v>
       </c>
       <c r="F8">
-        <v>18.21007161778751</v>
+        <v>17.69062745433644</v>
       </c>
       <c r="G8">
-        <v>22.9099993778718</v>
+        <v>21.78299969891528</v>
       </c>
       <c r="H8">
-        <v>2.614389998946917</v>
+        <v>2.513772571556192</v>
       </c>
       <c r="I8">
-        <v>3.277755352787203</v>
+        <v>3.148235265054272</v>
       </c>
       <c r="J8">
-        <v>9.320559044143522</v>
+        <v>9.381431413238415</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.6434468396306</v>
       </c>
       <c r="M8">
-        <v>10.47294815268607</v>
+        <v>10.10237064383726</v>
       </c>
       <c r="N8">
-        <v>6.348539718012692</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.645895233034281</v>
+        <v>10.49258109652654</v>
       </c>
       <c r="P8">
-        <v>13.18218602681537</v>
+        <v>6.491300405744371</v>
       </c>
       <c r="Q8">
-        <v>15.16517840246694</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.545619518480878</v>
+      </c>
+      <c r="R8">
+        <v>13.04330944593631</v>
+      </c>
+      <c r="S8">
+        <v>14.74162514216263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.3099760373084</v>
+        <v>13.94650536517941</v>
       </c>
       <c r="C9">
-        <v>9.482042876413106</v>
+        <v>9.186229677576959</v>
       </c>
       <c r="D9">
-        <v>5.886497816475246</v>
+        <v>5.962305051197211</v>
       </c>
       <c r="E9">
-        <v>9.257296325408959</v>
+        <v>9.052332129015106</v>
       </c>
       <c r="F9">
-        <v>18.93948816811146</v>
+        <v>18.30719690281843</v>
       </c>
       <c r="G9">
-        <v>23.72875453132256</v>
+        <v>22.42799656998101</v>
       </c>
       <c r="H9">
-        <v>2.226625037383027</v>
+        <v>2.15221286633889</v>
       </c>
       <c r="I9">
-        <v>2.959539049331812</v>
+        <v>2.863235261886141</v>
       </c>
       <c r="J9">
-        <v>9.290064063230709</v>
+        <v>9.363384000089505</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.3494760233413</v>
       </c>
       <c r="M9">
-        <v>11.74409966075018</v>
+        <v>10.22784918261416</v>
       </c>
       <c r="N9">
-        <v>6.721882420727031</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.51673609564203</v>
+        <v>11.75739071556242</v>
       </c>
       <c r="P9">
-        <v>12.87702517548762</v>
+        <v>6.861815599778365</v>
       </c>
       <c r="Q9">
-        <v>15.29861907410818</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.39507692280982</v>
+      </c>
+      <c r="R9">
+        <v>12.7605714040661</v>
+      </c>
+      <c r="S9">
+        <v>14.7977911032475</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.4875971603683</v>
+        <v>15.06925193779056</v>
       </c>
       <c r="C10">
-        <v>9.667638856720878</v>
+        <v>9.462143083751334</v>
       </c>
       <c r="D10">
-        <v>6.234016943311882</v>
+        <v>6.350067879136588</v>
       </c>
       <c r="E10">
-        <v>9.376570307395969</v>
+        <v>9.146763286040141</v>
       </c>
       <c r="F10">
-        <v>19.40589861124984</v>
+        <v>18.6371496978361</v>
       </c>
       <c r="G10">
-        <v>24.20500518206184</v>
+        <v>23.21422823380009</v>
       </c>
       <c r="H10">
-        <v>1.989779446785285</v>
+        <v>1.935386455888561</v>
       </c>
       <c r="I10">
-        <v>2.754553619501584</v>
+        <v>2.684717529617838</v>
       </c>
       <c r="J10">
-        <v>9.254341448422519</v>
+        <v>9.163419849954566</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.07722366531432</v>
       </c>
       <c r="M10">
-        <v>12.59487442363604</v>
+        <v>10.32503291282358</v>
       </c>
       <c r="N10">
-        <v>6.888051037991443</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.02459044919902</v>
+        <v>12.58841905282349</v>
       </c>
       <c r="P10">
-        <v>12.65800694292521</v>
+        <v>7.025228616794185</v>
       </c>
       <c r="Q10">
-        <v>15.35629753667153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.88279587745027</v>
+      </c>
+      <c r="R10">
+        <v>12.56211799595618</v>
+      </c>
+      <c r="S10">
+        <v>14.75874103669779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.62377452113362</v>
+        <v>15.19147280124952</v>
       </c>
       <c r="C11">
-        <v>9.96437638805277</v>
+        <v>9.834246289927412</v>
       </c>
       <c r="D11">
-        <v>6.535100334213255</v>
+        <v>6.682249173259024</v>
       </c>
       <c r="E11">
-        <v>8.60326511085629</v>
+        <v>8.416312854711396</v>
       </c>
       <c r="F11">
-        <v>18.89411648188305</v>
+        <v>18.02849448715434</v>
       </c>
       <c r="G11">
-        <v>23.16004253985833</v>
+        <v>23.11611190480312</v>
       </c>
       <c r="H11">
-        <v>2.934134168200435</v>
+        <v>2.902558721577147</v>
       </c>
       <c r="I11">
-        <v>2.719784834097047</v>
+        <v>2.66368012868168</v>
       </c>
       <c r="J11">
-        <v>9.029951920796595</v>
+        <v>8.663126016421192</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.60779274902893</v>
       </c>
       <c r="M11">
-        <v>12.97956765714051</v>
+        <v>9.948981116758734</v>
       </c>
       <c r="N11">
-        <v>6.168988101954389</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.49279329954978</v>
+        <v>12.93723745219748</v>
       </c>
       <c r="P11">
-        <v>12.55949294715424</v>
+        <v>6.293674089590355</v>
       </c>
       <c r="Q11">
-        <v>14.85640379193045</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.34455836160334</v>
+      </c>
+      <c r="R11">
+        <v>12.49919357068241</v>
+      </c>
+      <c r="S11">
+        <v>14.20129972134779</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.51217470144947</v>
+        <v>15.09411199937989</v>
       </c>
       <c r="C12">
-        <v>10.21635177316746</v>
+        <v>10.11865769250149</v>
       </c>
       <c r="D12">
-        <v>6.71629361836827</v>
+        <v>6.873596991492413</v>
       </c>
       <c r="E12">
-        <v>8.141040335468855</v>
+        <v>7.994377882516472</v>
       </c>
       <c r="F12">
-        <v>18.37674594909257</v>
+        <v>17.49622778941039</v>
       </c>
       <c r="G12">
-        <v>22.20669637956884</v>
+        <v>22.63266431446284</v>
       </c>
       <c r="H12">
-        <v>4.272680353945979</v>
+        <v>4.251571607659558</v>
       </c>
       <c r="I12">
-        <v>2.71243445675985</v>
+        <v>2.658556624641437</v>
       </c>
       <c r="J12">
-        <v>8.853493467207494</v>
+        <v>8.417003303715388</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.31571506494297</v>
       </c>
       <c r="M12">
-        <v>13.13120891595202</v>
+        <v>9.637051473479257</v>
       </c>
       <c r="N12">
-        <v>5.599931243500564</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.939449166829547</v>
+        <v>13.07175335582841</v>
       </c>
       <c r="P12">
-        <v>12.53912513977423</v>
+        <v>5.713607310623443</v>
       </c>
       <c r="Q12">
-        <v>14.43564194611101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.794056841220874</v>
+      </c>
+      <c r="R12">
+        <v>12.50404977498131</v>
+      </c>
+      <c r="S12">
+        <v>13.78171851592765</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.18007603889499</v>
+        <v>14.80579124937213</v>
       </c>
       <c r="C13">
-        <v>10.45169872451513</v>
+        <v>10.36913791795866</v>
       </c>
       <c r="D13">
-        <v>6.824586630854848</v>
+        <v>6.97054802292426</v>
       </c>
       <c r="E13">
-        <v>7.911169464578959</v>
+        <v>7.805186068200721</v>
       </c>
       <c r="F13">
-        <v>17.78893767008221</v>
+        <v>16.98144842971888</v>
       </c>
       <c r="G13">
-        <v>21.20893754552162</v>
+        <v>21.57803181183003</v>
       </c>
       <c r="H13">
-        <v>5.672195888869814</v>
+        <v>5.654687577685976</v>
       </c>
       <c r="I13">
-        <v>2.741040519223325</v>
+        <v>2.682797676998971</v>
       </c>
       <c r="J13">
-        <v>8.695480113922924</v>
+        <v>8.350394637006834</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.1176555148699</v>
       </c>
       <c r="M13">
-        <v>13.11754673244315</v>
+        <v>9.353635764792042</v>
       </c>
       <c r="N13">
-        <v>5.13559629326385</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.320655236844837</v>
+        <v>13.06078215303381</v>
       </c>
       <c r="P13">
-        <v>12.57334462597194</v>
+        <v>5.239387297095818</v>
       </c>
       <c r="Q13">
-        <v>14.02962405189179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.187665771369042</v>
+      </c>
+      <c r="R13">
+        <v>12.5519447466991</v>
+      </c>
+      <c r="S13">
+        <v>13.43802137915558</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.83905804869564</v>
+        <v>14.50925786167895</v>
       </c>
       <c r="C14">
-        <v>10.61590641898339</v>
+        <v>10.53690726565981</v>
       </c>
       <c r="D14">
-        <v>6.869599140991454</v>
+        <v>6.997718731996966</v>
       </c>
       <c r="E14">
-        <v>7.897861604105246</v>
+        <v>7.820188386200372</v>
       </c>
       <c r="F14">
-        <v>17.3385110966693</v>
+        <v>16.62008055211007</v>
       </c>
       <c r="G14">
-        <v>20.48158852944416</v>
+        <v>20.58679681099548</v>
       </c>
       <c r="H14">
-        <v>6.669379881829715</v>
+        <v>6.652719703209739</v>
       </c>
       <c r="I14">
-        <v>2.78026159133118</v>
+        <v>2.716603397792806</v>
       </c>
       <c r="J14">
-        <v>8.592767630239331</v>
+        <v>8.369269445466895</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.0143289385059</v>
       </c>
       <c r="M14">
-        <v>13.03322422586621</v>
+        <v>9.17032000493152</v>
       </c>
       <c r="N14">
-        <v>4.889466402993333</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.853516682410401</v>
+        <v>12.9871088662853</v>
       </c>
       <c r="P14">
-        <v>12.62273852396766</v>
+        <v>4.986829750722223</v>
       </c>
       <c r="Q14">
-        <v>13.75044985818403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.733241894359123</v>
+      </c>
+      <c r="R14">
+        <v>12.60377068152117</v>
+      </c>
+      <c r="S14">
+        <v>13.2270055977106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.70216962175704</v>
+        <v>14.38927951761835</v>
       </c>
       <c r="C15">
-        <v>10.65101256614389</v>
+        <v>10.57170521338732</v>
       </c>
       <c r="D15">
-        <v>6.866086782837074</v>
+        <v>6.98561851268623</v>
       </c>
       <c r="E15">
-        <v>7.913266467355172</v>
+        <v>7.842935371603255</v>
       </c>
       <c r="F15">
-        <v>17.20892201925864</v>
+        <v>16.52829771479001</v>
       </c>
       <c r="G15">
-        <v>20.28674021384168</v>
+        <v>20.23508719794124</v>
       </c>
       <c r="H15">
-        <v>6.90192833807716</v>
+        <v>6.88498702008873</v>
       </c>
       <c r="I15">
-        <v>2.802444247083794</v>
+        <v>2.736855345556102</v>
       </c>
       <c r="J15">
-        <v>8.570518133408374</v>
+        <v>8.402032443212072</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.001004725589</v>
       </c>
       <c r="M15">
-        <v>12.97703486244323</v>
+        <v>9.129459811518299</v>
       </c>
       <c r="N15">
-        <v>4.842165158369846</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.724324948533884</v>
+        <v>12.93733632544505</v>
       </c>
       <c r="P15">
-        <v>12.64437819312274</v>
+        <v>4.93859496223677</v>
       </c>
       <c r="Q15">
-        <v>13.68255504604823</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.608841774020783</v>
+      </c>
+      <c r="R15">
+        <v>12.62325352830033</v>
+      </c>
+      <c r="S15">
+        <v>13.18605808202474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.24109933273367</v>
+        <v>13.97983794098264</v>
       </c>
       <c r="C16">
-        <v>10.52471289000244</v>
+        <v>10.42903187232949</v>
       </c>
       <c r="D16">
-        <v>6.707644516027181</v>
+        <v>6.791425571715276</v>
       </c>
       <c r="E16">
-        <v>7.895958494574121</v>
+        <v>7.830197862465591</v>
       </c>
       <c r="F16">
-        <v>17.09854491590794</v>
+        <v>16.55107909889349</v>
       </c>
       <c r="G16">
-        <v>20.24262865567441</v>
+        <v>19.4485856536295</v>
       </c>
       <c r="H16">
-        <v>6.703765145055867</v>
+        <v>6.682012866033664</v>
       </c>
       <c r="I16">
-        <v>2.889949796055283</v>
+        <v>2.812103740937108</v>
       </c>
       <c r="J16">
-        <v>8.614641350766414</v>
+        <v>8.674205822594391</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.13496476906843</v>
       </c>
       <c r="M16">
-        <v>12.63046105948364</v>
+        <v>9.188578234664966</v>
       </c>
       <c r="N16">
-        <v>4.854994586930585</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.606581171005505</v>
+        <v>12.62273707798337</v>
       </c>
       <c r="P16">
-        <v>12.72171222630586</v>
+        <v>4.958416984436133</v>
       </c>
       <c r="Q16">
-        <v>13.72986392110472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.505364885584243</v>
+      </c>
+      <c r="R16">
+        <v>12.67805075928454</v>
+      </c>
+      <c r="S16">
+        <v>13.31895644880045</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.07010758056793</v>
+        <v>13.82026954411898</v>
       </c>
       <c r="C17">
-        <v>10.33613640144462</v>
+        <v>10.22126111720295</v>
       </c>
       <c r="D17">
-        <v>6.559181148648396</v>
+        <v>6.629064060839532</v>
       </c>
       <c r="E17">
-        <v>7.865857122513746</v>
+        <v>7.786948217179436</v>
       </c>
       <c r="F17">
-        <v>17.25865891149179</v>
+        <v>16.7509779657194</v>
       </c>
       <c r="G17">
-        <v>20.60036390534965</v>
+        <v>19.48222150070247</v>
       </c>
       <c r="H17">
-        <v>5.991308615093534</v>
+        <v>5.964391047148119</v>
       </c>
       <c r="I17">
-        <v>2.937072424646601</v>
+        <v>2.853261250960514</v>
       </c>
       <c r="J17">
-        <v>8.702935651983616</v>
+        <v>8.858760074801525</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.29913596486485</v>
       </c>
       <c r="M17">
-        <v>12.40603931676317</v>
+        <v>9.321647427343658</v>
       </c>
       <c r="N17">
-        <v>4.981530565824329</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.770256395891158</v>
+        <v>12.41299962314705</v>
       </c>
       <c r="P17">
-        <v>12.75572873559471</v>
+        <v>5.093175936417241</v>
       </c>
       <c r="Q17">
-        <v>13.91458534562162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.672032411930561</v>
+      </c>
+      <c r="R17">
+        <v>12.69743902743793</v>
+      </c>
+      <c r="S17">
+        <v>13.52528719166954</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.14915239023404</v>
+        <v>13.88204669706082</v>
       </c>
       <c r="C18">
-        <v>10.08309691162647</v>
+        <v>9.942941802723606</v>
       </c>
       <c r="D18">
-        <v>6.402042521479177</v>
+        <v>6.470188330694153</v>
       </c>
       <c r="E18">
-        <v>7.955546885484758</v>
+        <v>7.845181128466871</v>
       </c>
       <c r="F18">
-        <v>17.67865363717768</v>
+        <v>17.1579424855537</v>
       </c>
       <c r="G18">
-        <v>21.36450608489157</v>
+        <v>20.07159730559708</v>
       </c>
       <c r="H18">
-        <v>4.789130404846033</v>
+        <v>4.754617466009142</v>
       </c>
       <c r="I18">
-        <v>2.942515141512976</v>
+        <v>2.855240357239528</v>
       </c>
       <c r="J18">
-        <v>8.842738171783106</v>
+        <v>9.028333288521971</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.52959423032532</v>
       </c>
       <c r="M18">
-        <v>12.265817629387</v>
+        <v>9.546232783037389</v>
       </c>
       <c r="N18">
-        <v>5.294341595107772</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.201356251706651</v>
+        <v>12.27974808844747</v>
       </c>
       <c r="P18">
-        <v>12.7627897885764</v>
+        <v>5.415224558355214</v>
       </c>
       <c r="Q18">
-        <v>14.24735725380032</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.098945290245744</v>
+      </c>
+      <c r="R18">
+        <v>12.69165087508246</v>
+      </c>
+      <c r="S18">
+        <v>13.84276998968184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.39742957060545</v>
+        <v>14.09418950212571</v>
       </c>
       <c r="C19">
-        <v>9.849656494000278</v>
+        <v>9.680069621635598</v>
       </c>
       <c r="D19">
-        <v>6.259746314075655</v>
+        <v>6.333610221528545</v>
       </c>
       <c r="E19">
-        <v>8.318969935387306</v>
+        <v>8.164731834294159</v>
       </c>
       <c r="F19">
-        <v>18.24035561619952</v>
+        <v>17.67477098395269</v>
       </c>
       <c r="G19">
-        <v>22.34556007054421</v>
+        <v>20.94413899030866</v>
       </c>
       <c r="H19">
-        <v>3.401531202866998</v>
+        <v>3.35493124210495</v>
       </c>
       <c r="I19">
-        <v>2.931064634414168</v>
+        <v>2.8464316918276</v>
       </c>
       <c r="J19">
-        <v>9.006421088559065</v>
+        <v>9.184916082890032</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.79135988810471</v>
       </c>
       <c r="M19">
-        <v>12.20708548784874</v>
+        <v>9.82073734462028</v>
       </c>
       <c r="N19">
-        <v>5.824386437341742</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.809947935915675</v>
+        <v>12.22363427539884</v>
       </c>
       <c r="P19">
-        <v>12.75881878584188</v>
+        <v>5.953773962341955</v>
       </c>
       <c r="Q19">
-        <v>14.65566094789293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.698708424540584</v>
+      </c>
+      <c r="R19">
+        <v>12.67510287062068</v>
+      </c>
+      <c r="S19">
+        <v>14.21324018462913</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.13837067304365</v>
+        <v>14.75095796081001</v>
       </c>
       <c r="C20">
-        <v>9.637479076773445</v>
+        <v>9.424477598314301</v>
       </c>
       <c r="D20">
-        <v>6.155864198172288</v>
+        <v>6.254065972325271</v>
       </c>
       <c r="E20">
-        <v>9.324472839434373</v>
+        <v>9.100296433240226</v>
       </c>
       <c r="F20">
-        <v>19.22561117652726</v>
+        <v>18.53037840855995</v>
       </c>
       <c r="G20">
-        <v>23.97910898362957</v>
+        <v>22.649343993</v>
       </c>
       <c r="H20">
-        <v>2.052788591078108</v>
+        <v>1.991914920392741</v>
       </c>
       <c r="I20">
-        <v>2.838171601593868</v>
+        <v>2.765873769150793</v>
       </c>
       <c r="J20">
-        <v>9.246440481142686</v>
+        <v>9.30417807133824</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.12782039862776</v>
       </c>
       <c r="M20">
-        <v>12.37867454950361</v>
+        <v>10.2735986555906</v>
       </c>
       <c r="N20">
-        <v>6.846283013677342</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.87933083830022</v>
+        <v>12.38698056164978</v>
       </c>
       <c r="P20">
-        <v>12.71325893065637</v>
+        <v>6.984844721763242</v>
       </c>
       <c r="Q20">
-        <v>15.29814307922343</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.74657776781649</v>
+      </c>
+      <c r="R20">
+        <v>12.61325800284673</v>
+      </c>
+      <c r="S20">
+        <v>14.7539502507452</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.09057504958802</v>
+        <v>15.58774643406953</v>
       </c>
       <c r="C21">
-        <v>9.746123897855846</v>
+        <v>9.557084086986963</v>
       </c>
       <c r="D21">
-        <v>6.386048783693564</v>
+        <v>6.555378577071609</v>
       </c>
       <c r="E21">
-        <v>9.586259832006528</v>
+        <v>9.344305717830702</v>
       </c>
       <c r="F21">
-        <v>19.72664982534567</v>
+        <v>18.72274392355064</v>
       </c>
       <c r="G21">
-        <v>24.59434782871798</v>
+        <v>24.8573393932494</v>
       </c>
       <c r="H21">
-        <v>1.831512019250641</v>
+        <v>1.791575603788768</v>
       </c>
       <c r="I21">
-        <v>2.67411140076125</v>
+        <v>2.627789122964796</v>
       </c>
       <c r="J21">
-        <v>9.262840215314153</v>
+        <v>8.691479547561002</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.92559988127238</v>
       </c>
       <c r="M21">
-        <v>13.00098696380226</v>
+        <v>10.36421604057325</v>
       </c>
       <c r="N21">
-        <v>7.120085164170233</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.39243245991214</v>
+        <v>12.9456027429574</v>
       </c>
       <c r="P21">
-        <v>12.55064107872305</v>
+        <v>7.254734281023663</v>
       </c>
       <c r="Q21">
-        <v>15.45081985344875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.22310264737332</v>
+      </c>
+      <c r="R21">
+        <v>12.46465372077109</v>
+      </c>
+      <c r="S21">
+        <v>14.68161759024343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.67769403342611</v>
+        <v>16.10220110846024</v>
       </c>
       <c r="C22">
-        <v>9.818953185618128</v>
+        <v>9.644459954302128</v>
       </c>
       <c r="D22">
-        <v>6.535921855926135</v>
+        <v>6.752745003245685</v>
       </c>
       <c r="E22">
-        <v>9.705089180779741</v>
+        <v>9.456395652604717</v>
       </c>
       <c r="F22">
-        <v>20.03630421738892</v>
+        <v>18.8202661201991</v>
       </c>
       <c r="G22">
-        <v>24.96575517945956</v>
+        <v>26.40155546142024</v>
       </c>
       <c r="H22">
-        <v>1.70304044716227</v>
+        <v>1.676409273551604</v>
       </c>
       <c r="I22">
-        <v>2.559616684198855</v>
+        <v>2.527383317141138</v>
       </c>
       <c r="J22">
-        <v>9.270475080561782</v>
+        <v>8.323642427383987</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.78521138977225</v>
       </c>
       <c r="M22">
-        <v>13.3921926377494</v>
+        <v>10.4186799983548</v>
       </c>
       <c r="N22">
-        <v>7.243960903474567</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.67804581971126</v>
+        <v>13.29349147768923</v>
       </c>
       <c r="P22">
-        <v>12.44516491918809</v>
+        <v>7.375795979869538</v>
       </c>
       <c r="Q22">
-        <v>15.54109671036693</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.48454927218405</v>
+      </c>
+      <c r="R22">
+        <v>12.37048620952645</v>
+      </c>
+      <c r="S22">
+        <v>14.61444088661756</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.38144037798326</v>
+        <v>15.85058512527197</v>
       </c>
       <c r="C23">
-        <v>9.773621833731273</v>
+        <v>9.592163505546331</v>
       </c>
       <c r="D23">
-        <v>6.452564619005528</v>
+        <v>6.638498178584716</v>
       </c>
       <c r="E23">
-        <v>9.64803888230079</v>
+        <v>9.401144499192243</v>
       </c>
       <c r="F23">
-        <v>19.89025102463945</v>
+        <v>18.81394953140707</v>
       </c>
       <c r="G23">
-        <v>24.801112702854</v>
+        <v>25.41567055476522</v>
       </c>
       <c r="H23">
-        <v>1.770449113302217</v>
+        <v>1.736096141127644</v>
       </c>
       <c r="I23">
-        <v>2.608103890965753</v>
+        <v>2.565412422104758</v>
       </c>
       <c r="J23">
-        <v>9.2719621742191</v>
+        <v>8.573383137311579</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.87896905460134</v>
       </c>
       <c r="M23">
-        <v>13.18440998539896</v>
+        <v>10.41330157287037</v>
       </c>
       <c r="N23">
-        <v>7.17591464078632</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.53027089263997</v>
+        <v>13.11536545925545</v>
       </c>
       <c r="P23">
-        <v>12.5018713147379</v>
+        <v>7.309685336586756</v>
       </c>
       <c r="Q23">
-        <v>15.50692527394566</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.35226541314959</v>
+      </c>
+      <c r="R23">
+        <v>12.41993976963777</v>
+      </c>
+      <c r="S23">
+        <v>14.68349575791559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.17995737567121</v>
+        <v>14.78946220226817</v>
       </c>
       <c r="C24">
-        <v>9.610634707311402</v>
+        <v>9.385910866812926</v>
       </c>
       <c r="D24">
-        <v>6.132789806568161</v>
+        <v>6.230835809210868</v>
       </c>
       <c r="E24">
-        <v>9.417412571500451</v>
+        <v>9.188793964081762</v>
       </c>
       <c r="F24">
-        <v>19.31257628206316</v>
+        <v>18.61417724393402</v>
       </c>
       <c r="G24">
-        <v>24.1352329945634</v>
+        <v>22.78466941497893</v>
       </c>
       <c r="H24">
-        <v>2.033181450599149</v>
+        <v>1.972194424682913</v>
       </c>
       <c r="I24">
-        <v>2.818263081634505</v>
+        <v>2.742494540552077</v>
       </c>
       <c r="J24">
-        <v>9.273713825321199</v>
+        <v>9.333915399145486</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.17871966299767</v>
       </c>
       <c r="M24">
-        <v>12.36611365702994</v>
+        <v>10.32496610937901</v>
       </c>
       <c r="N24">
-        <v>6.916468915571344</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.94678580765743</v>
+        <v>12.37503372397405</v>
       </c>
       <c r="P24">
-        <v>12.71824573348149</v>
+        <v>7.055780748770942</v>
       </c>
       <c r="Q24">
-        <v>15.36509294433962</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.81329689396374</v>
+      </c>
+      <c r="R24">
+        <v>12.61533521575162</v>
+      </c>
+      <c r="S24">
+        <v>14.81746646625966</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.81346943125473</v>
+        <v>13.46108294048769</v>
       </c>
       <c r="C25">
-        <v>9.430078913304039</v>
+        <v>9.108382612033378</v>
       </c>
       <c r="D25">
-        <v>5.766564031819504</v>
+        <v>5.828194876333731</v>
       </c>
       <c r="E25">
-        <v>9.159296154182215</v>
+        <v>8.966510918489275</v>
       </c>
       <c r="F25">
-        <v>18.70682511180994</v>
+        <v>18.12083546896488</v>
       </c>
       <c r="G25">
-        <v>23.44656576277233</v>
+        <v>22.08708663021826</v>
       </c>
       <c r="H25">
-        <v>2.329852225364539</v>
+        <v>2.24797352161213</v>
       </c>
       <c r="I25">
-        <v>3.058848267019977</v>
+        <v>2.956106884616478</v>
       </c>
       <c r="J25">
-        <v>9.287135936248976</v>
+        <v>9.401930345286882</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.41382093061745</v>
       </c>
       <c r="M25">
-        <v>11.41576460032134</v>
+        <v>10.16678675468104</v>
       </c>
       <c r="N25">
-        <v>6.626269812567832</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.28192768169061</v>
+        <v>11.43482099817893</v>
       </c>
       <c r="P25">
-        <v>12.9570086445514</v>
+        <v>6.767023771537504</v>
       </c>
       <c r="Q25">
-        <v>15.23544744206052</v>
+        <v>10.16762729906352</v>
+      </c>
+      <c r="R25">
+        <v>12.8351858439624</v>
+      </c>
+      <c r="S25">
+        <v>14.76737858112069</v>
       </c>
     </row>
   </sheetData>
